--- a/Tabelas/Transformador de Corrente.xlsx
+++ b/Tabelas/Transformador de Corrente.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED54CFBC-6FC9-49D3-82E7-4066CEAED704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B207F-7B0E-4EB9-A346-7F4D665669C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="840" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>Eletromecânico</t>
   </si>
@@ -235,12 +235,234 @@
   <si>
     <t>B800</t>
   </si>
+  <si>
+    <t>Corrente Nominal</t>
+  </si>
+  <si>
+    <t>Relação nominal</t>
+  </si>
+  <si>
+    <t>Corrente primária Nominal (A)</t>
+  </si>
+  <si>
+    <t>5x10</t>
+  </si>
+  <si>
+    <t>10x20</t>
+  </si>
+  <si>
+    <t>15x20</t>
+  </si>
+  <si>
+    <t>20x40</t>
+  </si>
+  <si>
+    <t>25x50</t>
+  </si>
+  <si>
+    <t>30x60</t>
+  </si>
+  <si>
+    <t>40x80</t>
+  </si>
+  <si>
+    <t>50x100</t>
+  </si>
+  <si>
+    <t>60x120</t>
+  </si>
+  <si>
+    <t>75x150</t>
+  </si>
+  <si>
+    <t>100x200</t>
+  </si>
+  <si>
+    <t>150x300</t>
+  </si>
+  <si>
+    <t>400x800</t>
+  </si>
+  <si>
+    <t>200x400</t>
+  </si>
+  <si>
+    <t>300x600</t>
+  </si>
+  <si>
+    <t>600x1200</t>
+  </si>
+  <si>
+    <t>800x1600</t>
+  </si>
+  <si>
+    <t>1000x2000</t>
+  </si>
+  <si>
+    <t>1200x2400</t>
+  </si>
+  <si>
+    <t>1500x3000</t>
+  </si>
+  <si>
+    <t>2000x4000</t>
+  </si>
+  <si>
+    <t>2500x5000</t>
+  </si>
+  <si>
+    <t>3000x6000</t>
+  </si>
+  <si>
+    <t>4000x8000</t>
+  </si>
+  <si>
+    <t>5000x10000</t>
+  </si>
+  <si>
+    <t>6000x12000</t>
+  </si>
+  <si>
+    <t>7000x14000</t>
+  </si>
+  <si>
+    <t>8000x16000</t>
+  </si>
+  <si>
+    <t>9000x18000</t>
+  </si>
+  <si>
+    <t>10000x20000</t>
+  </si>
+  <si>
+    <t>1x2:1</t>
+  </si>
+  <si>
+    <t>2x4:1</t>
+  </si>
+  <si>
+    <t>3x6:1</t>
+  </si>
+  <si>
+    <t>4x8:1</t>
+  </si>
+  <si>
+    <t>5x10:1</t>
+  </si>
+  <si>
+    <t>6x12:1</t>
+  </si>
+  <si>
+    <t>8x16:1</t>
+  </si>
+  <si>
+    <t>10x20:1</t>
+  </si>
+  <si>
+    <t>12x24:1</t>
+  </si>
+  <si>
+    <t>15x30:1</t>
+  </si>
+  <si>
+    <t>20x40:1</t>
+  </si>
+  <si>
+    <t>30x60:1</t>
+  </si>
+  <si>
+    <t>40x80:1</t>
+  </si>
+  <si>
+    <t>60x120:1</t>
+  </si>
+  <si>
+    <t>80x160:1</t>
+  </si>
+  <si>
+    <t>120x240:1</t>
+  </si>
+  <si>
+    <t>160x320:1</t>
+  </si>
+  <si>
+    <t>200x400:1</t>
+  </si>
+  <si>
+    <t>240x480:1</t>
+  </si>
+  <si>
+    <t>300x600:1</t>
+  </si>
+  <si>
+    <t>400x800:1</t>
+  </si>
+  <si>
+    <t>500x1000:1</t>
+  </si>
+  <si>
+    <t>600x1200:1</t>
+  </si>
+  <si>
+    <t>800x1600:1</t>
+  </si>
+  <si>
+    <t>1000x2000:1</t>
+  </si>
+  <si>
+    <t>1200x2400:1</t>
+  </si>
+  <si>
+    <t>1400x2800:1</t>
+  </si>
+  <si>
+    <t>1600x3200:1</t>
+  </si>
+  <si>
+    <t>1800x3600:1</t>
+  </si>
+  <si>
+    <t>2000x4000:1</t>
+  </si>
+  <si>
+    <t>Tensão Máxima do Equipamento (KV)</t>
+  </si>
+  <si>
+    <t>Tensão suportável nominal frequência industrial (KV)</t>
+  </si>
+  <si>
+    <t>Tensão suportável nominal de impulso atmosférico (KV)</t>
+  </si>
+  <si>
+    <t>360/395</t>
+  </si>
+  <si>
+    <t>230/275</t>
+  </si>
+  <si>
+    <t>40/60</t>
+  </si>
+  <si>
+    <t>95/110</t>
+  </si>
+  <si>
+    <t>125/150</t>
+  </si>
+  <si>
+    <t>150/170/200</t>
+  </si>
+  <si>
+    <t>850/950</t>
+  </si>
+  <si>
+    <t>950/1050/1175</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +475,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,12 +505,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,24 +801,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF87AD5-BB4E-4D4A-84AA-5FFD4EAB08E0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>75</v>
+      </c>
+      <c r="B11" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>125</v>
+      </c>
+      <c r="B13" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>200</v>
+      </c>
+      <c r="B15" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>250</v>
+      </c>
+      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>300</v>
+      </c>
+      <c r="B17" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>400</v>
+      </c>
+      <c r="B18" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>500</v>
+      </c>
+      <c r="B19" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>600</v>
+      </c>
+      <c r="B20" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>800</v>
+      </c>
+      <c r="B21" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B24" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B26" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B27" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B28" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27A100C-D652-43CB-8858-45E2B92CCC3F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -588,7 +1345,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,142 +1380,142 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.09</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.18</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.45</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>12.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>200</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>8</v>
       </c>
     </row>
@@ -773,7 +1530,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,136 +1542,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.94</v>
       </c>
     </row>
@@ -930,141 +1687,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00364DD-88F1-487D-8B09-BF0E40D1268B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>34.5</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>72.599999999999994</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>10.3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>200</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5.2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>300</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3.4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>5.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>400</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>4.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>6.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>500</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>3.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>600</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2.8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>800</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1.3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2.1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>1000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1.6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -1078,7 +1833,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,16 +1843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1105,13 +1860,13 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1119,13 +1874,13 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1133,13 +1888,13 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1147,13 +1902,13 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1161,13 +1916,13 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>200</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1175,13 +1930,13 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>400</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1189,13 +1944,13 @@
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>800</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1206,12 +1961,149 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A06F74-C67B-4212-98E3-172D9DF2DA1F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B7" s="2">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>140</v>
+      </c>
+      <c r="C8" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>145</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>242</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>362</v>
+      </c>
+      <c r="B11" s="2">
+        <v>450</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>4600</v>
+      </c>
+      <c r="B12" s="2">
+        <v>620</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1425</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Tabelas/Transformador de Corrente.xlsx
+++ b/Tabelas/Transformador de Corrente.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B207F-7B0E-4EB9-A346-7F4D665669C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E08B207F-7B0E-4EB9-A346-7F4D665669C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF67F2E2-A56D-49A3-872B-F5001C3F1F85}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="840" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="6" r:id="rId1"/>
@@ -505,12 +505,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,6 +518,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +828,7 @@
       <c r="A2" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -833,7 +836,7 @@
       <c r="A3" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -841,7 +844,7 @@
       <c r="A4" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
     </row>
@@ -849,7 +852,7 @@
       <c r="A5" s="2">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
     </row>
@@ -857,7 +860,7 @@
       <c r="A6" s="2">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
     </row>
@@ -865,7 +868,7 @@
       <c r="A7" s="2">
         <v>30</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
     </row>
@@ -873,7 +876,7 @@
       <c r="A8" s="2">
         <v>40</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>8</v>
       </c>
     </row>
@@ -881,7 +884,7 @@
       <c r="A9" s="2">
         <v>50</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>10</v>
       </c>
     </row>
@@ -889,7 +892,7 @@
       <c r="A10" s="2">
         <v>60</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>12</v>
       </c>
     </row>
@@ -897,7 +900,7 @@
       <c r="A11" s="2">
         <v>75</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>15</v>
       </c>
     </row>
@@ -905,7 +908,7 @@
       <c r="A12" s="2">
         <v>100</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>20</v>
       </c>
     </row>
@@ -913,7 +916,7 @@
       <c r="A13" s="2">
         <v>125</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>25</v>
       </c>
     </row>
@@ -921,7 +924,7 @@
       <c r="A14" s="2">
         <v>150</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>30</v>
       </c>
     </row>
@@ -929,7 +932,7 @@
       <c r="A15" s="2">
         <v>200</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>40</v>
       </c>
     </row>
@@ -937,7 +940,7 @@
       <c r="A16" s="2">
         <v>250</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>50</v>
       </c>
     </row>
@@ -945,7 +948,7 @@
       <c r="A17" s="2">
         <v>300</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>60</v>
       </c>
     </row>
@@ -953,7 +956,7 @@
       <c r="A18" s="2">
         <v>400</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>80</v>
       </c>
     </row>
@@ -961,7 +964,7 @@
       <c r="A19" s="2">
         <v>500</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>100</v>
       </c>
     </row>
@@ -969,7 +972,7 @@
       <c r="A20" s="2">
         <v>600</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>120</v>
       </c>
     </row>
@@ -977,7 +980,7 @@
       <c r="A21" s="2">
         <v>800</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>160</v>
       </c>
     </row>
@@ -985,7 +988,7 @@
       <c r="A22" s="2">
         <v>1000</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>200</v>
       </c>
     </row>
@@ -993,7 +996,7 @@
       <c r="A23" s="2">
         <v>1200</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>240</v>
       </c>
     </row>
@@ -1001,7 +1004,7 @@
       <c r="A24" s="2">
         <v>1500</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>300</v>
       </c>
     </row>
@@ -1009,7 +1012,7 @@
       <c r="A25" s="2">
         <v>2000</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>400</v>
       </c>
     </row>
@@ -1017,7 +1020,7 @@
       <c r="A26" s="2">
         <v>2500</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>500</v>
       </c>
     </row>
@@ -1025,7 +1028,7 @@
       <c r="A27" s="2">
         <v>3000</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>600</v>
       </c>
     </row>
@@ -1033,7 +1036,7 @@
       <c r="A28" s="2">
         <v>4000</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>800</v>
       </c>
     </row>
@@ -1041,7 +1044,7 @@
       <c r="A29" s="2">
         <v>5000</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -1049,7 +1052,7 @@
       <c r="A30" s="2">
         <v>6000</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1200</v>
       </c>
     </row>
@@ -1057,12 +1060,12 @@
       <c r="A31" s="2">
         <v>8000</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>1600</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="B32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1333,7 +1336,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="B32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1380,7 +1383,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2">
@@ -1400,7 +1403,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2">
@@ -1420,7 +1423,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2">
@@ -1440,7 +1443,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2">
@@ -1460,7 +1463,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2">
@@ -1480,7 +1483,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
@@ -1500,7 +1503,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -1553,7 +1556,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1562,11 +1565,11 @@
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1577,7 +1580,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1588,7 +1591,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1599,7 +1602,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1610,7 +1613,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1621,7 +1624,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1632,7 +1635,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1643,7 +1646,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1654,7 +1657,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -1665,7 +1668,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1685,9 +1688,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00364DD-88F1-487D-8B09-BF0E40D1268B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1696,7 +1701,7 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1711,8 +1716,8 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>100</v>
       </c>
       <c r="B2" s="2">
@@ -1725,8 +1730,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>200</v>
       </c>
       <c r="B3" s="2">
@@ -1739,8 +1744,8 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>300</v>
       </c>
       <c r="B4" s="2">
@@ -1753,8 +1758,8 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>400</v>
       </c>
       <c r="B5" s="2">
@@ -1766,9 +1771,10 @@
       <c r="D5" s="2">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>500</v>
       </c>
       <c r="B6" s="2">
@@ -1781,8 +1787,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>600</v>
       </c>
       <c r="B7" s="2">
@@ -1795,8 +1801,8 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>800</v>
       </c>
       <c r="B8" s="2">
@@ -1809,8 +1815,8 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>1000</v>
       </c>
       <c r="B9" s="2">
@@ -1825,6 +1831,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1963,7 +1970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A06F74-C67B-4212-98E3-172D9DF2DA1F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
